--- a/SLC.xlsx
+++ b/SLC.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\saflink\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7543C0CE-D812-4A24-97AD-C4D2BCD11313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A7278-FFF8-418D-8709-72ED02EBDE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="2" r:id="rId1"/>
     <sheet name="UKA" sheetId="1" r:id="rId2"/>
+    <sheet name="MBA" sheetId="3" r:id="rId3"/>
+    <sheet name="LAU" sheetId="4" r:id="rId4"/>
+    <sheet name="MYD" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>ASDA</t>
   </si>
@@ -427,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC89A66-016F-4B05-8368-42ED2AD95DEE}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -586,7 +589,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -625,25 +628,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>42400</v>
+        <v>43000</v>
       </c>
       <c r="C2" s="2">
-        <v>42200</v>
+        <v>43000</v>
       </c>
       <c r="D2" s="2">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="E2" s="2">
-        <v>41800</v>
+        <v>43000</v>
       </c>
       <c r="F2" s="2">
-        <v>41600</v>
+        <v>43000</v>
       </c>
       <c r="G2" s="2">
-        <v>41500</v>
+        <v>43000</v>
       </c>
       <c r="H2" s="2">
-        <v>41300</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -651,25 +654,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="C3" s="4">
-        <v>41800</v>
+        <v>43000</v>
       </c>
       <c r="D3" s="4">
-        <v>41600</v>
+        <v>43000</v>
       </c>
       <c r="E3" s="4">
-        <v>41400</v>
+        <v>43000</v>
       </c>
       <c r="F3" s="4">
-        <v>41200</v>
+        <v>43000</v>
       </c>
       <c r="G3" s="4">
-        <v>41000</v>
+        <v>43000</v>
       </c>
       <c r="H3" s="4">
-        <v>40800</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -677,25 +680,382 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="C4" s="2">
-        <v>42600</v>
+        <v>43000</v>
       </c>
       <c r="D4" s="2">
-        <v>42300</v>
+        <v>43000</v>
       </c>
       <c r="E4" s="2">
-        <v>42200</v>
+        <v>43000</v>
       </c>
       <c r="F4" s="2">
-        <v>42100</v>
+        <v>43000</v>
       </c>
       <c r="G4" s="2">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="H4" s="2">
-        <v>41700</v>
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6854CBAE-708D-4DAE-85C4-2C4413AFA3B6}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="4">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DB39F5-90AC-46DD-9925-E3F6A0E25A59}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="4">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6567EA82-C83D-4048-8E7F-C388B194B793}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="4">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43000</v>
       </c>
     </row>
   </sheetData>

--- a/SLC.xlsx
+++ b/SLC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\saflink\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A7278-FFF8-418D-8709-72ED02EBDE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5013ED-15B5-440D-AD48-BA874429F66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="2" r:id="rId1"/>
@@ -96,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -134,11 +134,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -148,6 +161,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC89A66-016F-4B05-8368-42ED2AD95DEE}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -586,10 +600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -597,33 +611,42 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="9">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2">
         <v>20</v>
       </c>
-      <c r="C1" s="2">
+      <c r="F1" s="2">
         <v>22</v>
       </c>
-      <c r="D1" s="2">
+      <c r="G1" s="2">
         <v>24</v>
       </c>
-      <c r="E1" s="2">
+      <c r="H1" s="2">
         <v>26</v>
       </c>
-      <c r="F1" s="2">
+      <c r="I1" s="2">
         <v>28</v>
       </c>
-      <c r="G1" s="2">
+      <c r="J1" s="2">
         <v>30</v>
       </c>
-      <c r="H1" s="2">
+      <c r="K1" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -648,8 +671,17 @@
       <c r="H2" s="2">
         <v>43000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -674,8 +706,17 @@
       <c r="H3" s="4">
         <v>43000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="I3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="4">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,6 +739,15 @@
         <v>43000</v>
       </c>
       <c r="H4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="2">
         <v>43000</v>
       </c>
     </row>
@@ -708,41 +758,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6854CBAE-708D-4DAE-85C4-2C4413AFA3B6}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="9">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2">
         <v>20</v>
       </c>
-      <c r="C1" s="2">
+      <c r="F1" s="2">
         <v>22</v>
       </c>
-      <c r="D1" s="2">
+      <c r="G1" s="2">
         <v>24</v>
       </c>
-      <c r="E1" s="2">
+      <c r="H1" s="2">
         <v>26</v>
       </c>
-      <c r="F1" s="2">
+      <c r="I1" s="2">
         <v>28</v>
       </c>
-      <c r="G1" s="2">
+      <c r="J1" s="2">
         <v>30</v>
       </c>
-      <c r="H1" s="2">
+      <c r="K1" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -767,8 +826,17 @@
       <c r="H2" s="2">
         <v>43000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -793,8 +861,17 @@
       <c r="H3" s="4">
         <v>43000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="I3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="4">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,6 +894,15 @@
         <v>43000</v>
       </c>
       <c r="H4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="2">
         <v>43000</v>
       </c>
     </row>
@@ -827,41 +913,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DB39F5-90AC-46DD-9925-E3F6A0E25A59}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="9">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2">
         <v>20</v>
       </c>
-      <c r="C1" s="2">
+      <c r="F1" s="2">
         <v>22</v>
       </c>
-      <c r="D1" s="2">
+      <c r="G1" s="2">
         <v>24</v>
       </c>
-      <c r="E1" s="2">
+      <c r="H1" s="2">
         <v>26</v>
       </c>
-      <c r="F1" s="2">
+      <c r="I1" s="2">
         <v>28</v>
       </c>
-      <c r="G1" s="2">
+      <c r="J1" s="2">
         <v>30</v>
       </c>
-      <c r="H1" s="2">
+      <c r="K1" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -886,8 +981,17 @@
       <c r="H2" s="2">
         <v>43000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -912,8 +1016,17 @@
       <c r="H3" s="4">
         <v>43000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="I3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="4">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,6 +1049,15 @@
         <v>43000</v>
       </c>
       <c r="H4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="2">
         <v>43000</v>
       </c>
     </row>
@@ -946,41 +1068,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6567EA82-C83D-4048-8E7F-C388B194B793}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="9">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2">
         <v>20</v>
       </c>
-      <c r="C1" s="2">
+      <c r="F1" s="2">
         <v>22</v>
       </c>
-      <c r="D1" s="2">
+      <c r="G1" s="2">
         <v>24</v>
       </c>
-      <c r="E1" s="2">
+      <c r="H1" s="2">
         <v>26</v>
       </c>
-      <c r="F1" s="2">
+      <c r="I1" s="2">
         <v>28</v>
       </c>
-      <c r="G1" s="2">
+      <c r="J1" s="2">
         <v>30</v>
       </c>
-      <c r="H1" s="2">
+      <c r="K1" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1005,8 +1136,17 @@
       <c r="H2" s="2">
         <v>43000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1031,8 +1171,17 @@
       <c r="H3" s="4">
         <v>43000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="I3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="4">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,6 +1204,15 @@
         <v>43000</v>
       </c>
       <c r="H4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="2">
         <v>43000</v>
       </c>
     </row>

--- a/SLC.xlsx
+++ b/SLC.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\saflink\flight-review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5013ED-15B5-440D-AD48-BA874429F66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D682E4-6E49-464E-AFB8-57B6FACC2733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="2" r:id="rId1"/>
-    <sheet name="UKA" sheetId="1" r:id="rId2"/>
-    <sheet name="MBA" sheetId="3" r:id="rId3"/>
-    <sheet name="LAU" sheetId="4" r:id="rId4"/>
-    <sheet name="MYD" sheetId="5" r:id="rId5"/>
+    <sheet name="KIS" sheetId="6" r:id="rId2"/>
+    <sheet name="EBB" sheetId="7" r:id="rId3"/>
+    <sheet name="JRO" sheetId="8" r:id="rId4"/>
+    <sheet name="ZNZ" sheetId="9" r:id="rId5"/>
+    <sheet name="NBO" sheetId="10" r:id="rId6"/>
+    <sheet name="UKA" sheetId="1" r:id="rId7"/>
+    <sheet name="MBA" sheetId="3" r:id="rId8"/>
+    <sheet name="LAU" sheetId="4" r:id="rId9"/>
+    <sheet name="MYD" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
   <si>
     <t>ASDA</t>
   </si>
@@ -42,12 +47,15 @@
   <si>
     <t>TEMP</t>
   </si>
+  <si>
+    <t>TEMPERATURE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +83,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +124,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -147,24 +182,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CE43503B-D140-47A5-A3F5-200FEA263262}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{DF48A03D-E1AC-4C27-A9D9-61F1934E9EEC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC89A66-016F-4B05-8368-42ED2AD95DEE}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -454,143 +566,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="3">
         <v>14</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="3">
         <v>16</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="3">
         <v>18</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="3">
         <v>20</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="3">
         <v>22</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="3">
         <v>24</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="3">
         <v>26</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="3">
         <v>28</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="3">
         <v>30</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>40600</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>40000</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>39500</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>39200</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>38600</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>38200</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>37600</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>37200</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6">
         <v>36600</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>36200</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>40600</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>40200</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>39800</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>39600</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>39200</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>38600</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>38400</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>37700</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>36800</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>36200</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>42400</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>42000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>41800</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>41200</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>40900</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>40600</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>40100</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>39700</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>39200</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>39000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6567EA82-C83D-4048-8E7F-C388B194B793}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>43000</v>
       </c>
     </row>
   </sheetData>
@@ -599,11 +866,753 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3685E88B-A87D-4AA4-B025-464DBBEDEFBE}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="5">
+        <v>42800</v>
+      </c>
+      <c r="G2" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H2" s="5">
+        <v>41700</v>
+      </c>
+      <c r="I2" s="5">
+        <v>41200</v>
+      </c>
+      <c r="J2" s="5">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC5B829-A6FF-4639-A69A-7EAF0DB55A07}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9">
+        <v>24</v>
+      </c>
+      <c r="H1" s="9">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9">
+        <v>28</v>
+      </c>
+      <c r="J1" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="15">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="15">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="15">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="11">
+        <v>42800</v>
+      </c>
+      <c r="G2" s="11">
+        <v>42100</v>
+      </c>
+      <c r="H2" s="11">
+        <v>41600</v>
+      </c>
+      <c r="I2" s="11">
+        <v>41000</v>
+      </c>
+      <c r="J2" s="12">
+        <v>40300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="9">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="9">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="9">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="9">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="9">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="10">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="9">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="9">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="9">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="9">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="9">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="9">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="10">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEA900-BA76-4A39-9DF2-65DDAD8F334A}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="5">
+        <v>42800</v>
+      </c>
+      <c r="I4" s="5">
+        <v>42200</v>
+      </c>
+      <c r="J4" s="5">
+        <v>41800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F80480D-50DE-47EE-9B13-D3601331A912}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE07478C-8E29-4B11-BFBC-E2CC70437750}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="17">
+        <v>14</v>
+      </c>
+      <c r="C1" s="17">
+        <v>16</v>
+      </c>
+      <c r="D1" s="17">
+        <v>18</v>
+      </c>
+      <c r="E1" s="17">
+        <v>20</v>
+      </c>
+      <c r="F1" s="17">
+        <v>22</v>
+      </c>
+      <c r="G1" s="17">
+        <v>24</v>
+      </c>
+      <c r="H1" s="17">
+        <v>26</v>
+      </c>
+      <c r="I1" s="17">
+        <v>28</v>
+      </c>
+      <c r="J1" s="17">
+        <v>30</v>
+      </c>
+      <c r="K1" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="20">
+        <v>42200</v>
+      </c>
+      <c r="C2" s="20">
+        <v>41600</v>
+      </c>
+      <c r="D2" s="20">
+        <v>41200</v>
+      </c>
+      <c r="E2" s="20">
+        <v>40600</v>
+      </c>
+      <c r="F2" s="20">
+        <v>40000</v>
+      </c>
+      <c r="G2" s="20">
+        <v>39400</v>
+      </c>
+      <c r="H2" s="20">
+        <v>38900</v>
+      </c>
+      <c r="I2" s="20">
+        <v>38400</v>
+      </c>
+      <c r="J2" s="20">
+        <v>37900</v>
+      </c>
+      <c r="K2" s="21">
+        <v>37300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="17">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="17">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="17">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="17">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="17">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="17">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="17">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="17">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="22">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="17">
+        <v>43000</v>
+      </c>
+      <c r="D4" s="17">
+        <v>43000</v>
+      </c>
+      <c r="E4" s="17">
+        <v>43000</v>
+      </c>
+      <c r="F4" s="17">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="17">
+        <v>43000</v>
+      </c>
+      <c r="H4" s="17">
+        <v>43000</v>
+      </c>
+      <c r="I4" s="17">
+        <v>43000</v>
+      </c>
+      <c r="J4" s="17">
+        <v>43000</v>
+      </c>
+      <c r="K4" s="18">
+        <v>43000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -615,13 +1624,13 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="7">
         <v>14</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="7">
         <v>16</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="7">
         <v>18</v>
       </c>
       <c r="E1" s="2">
@@ -682,37 +1691,37 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="H3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="I3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="J3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="B3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="2">
         <v>43000</v>
       </c>
     </row>
@@ -756,12 +1765,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6854CBAE-708D-4DAE-85C4-2C4413AFA3B6}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -770,13 +1779,13 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="7">
         <v>14</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="7">
         <v>16</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="7">
         <v>18</v>
       </c>
       <c r="E1" s="2">
@@ -837,37 +1846,37 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="H3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="I3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="J3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="B3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="2">
         <v>43000</v>
       </c>
     </row>
@@ -911,12 +1920,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DB39F5-90AC-46DD-9925-E3F6A0E25A59}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -925,13 +1934,13 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="7">
         <v>14</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="7">
         <v>16</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="7">
         <v>18</v>
       </c>
       <c r="E1" s="2">
@@ -992,192 +2001,37 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="H3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="I3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="J3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="K3" s="4">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43000</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>43000</v>
-      </c>
-      <c r="G4" s="2">
-        <v>43000</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43000</v>
-      </c>
-      <c r="I4" s="2">
-        <v>43000</v>
-      </c>
-      <c r="J4" s="2">
-        <v>43000</v>
-      </c>
-      <c r="K4" s="2">
-        <v>43000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6567EA82-C83D-4048-8E7F-C388B194B793}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="9">
-        <v>14</v>
-      </c>
-      <c r="C1" s="9">
-        <v>16</v>
-      </c>
-      <c r="D1" s="9">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2">
-        <v>24</v>
-      </c>
-      <c r="H1" s="2">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2">
-        <v>28</v>
-      </c>
-      <c r="J1" s="2">
-        <v>30</v>
-      </c>
-      <c r="K1" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43000</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>43000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>43000</v>
-      </c>
-      <c r="H2" s="2">
-        <v>43000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>43000</v>
-      </c>
-      <c r="J2" s="2">
-        <v>43000</v>
-      </c>
-      <c r="K2" s="2">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="H3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="I3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="J3" s="4">
-        <v>43000</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="B3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>43000</v>
+      </c>
+      <c r="K3" s="2">
         <v>43000</v>
       </c>
     </row>
